--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H2">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I2">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J2">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="N2">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="O2">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P2">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q2">
-        <v>14.85673379875878</v>
+        <v>1.269739065687333</v>
       </c>
       <c r="R2">
-        <v>14.85673379875878</v>
+        <v>11.427651591186</v>
       </c>
       <c r="S2">
-        <v>0.1708889812256864</v>
+        <v>0.0118480990048465</v>
       </c>
       <c r="T2">
-        <v>0.1708889812256864</v>
+        <v>0.01320675226168003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H3">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I3">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J3">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="N3">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P3">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q3">
-        <v>28.8722810129762</v>
+        <v>2.548584391132</v>
       </c>
       <c r="R3">
-        <v>28.8722810129762</v>
+        <v>22.937259520188</v>
       </c>
       <c r="S3">
-        <v>0.3321022476946747</v>
+        <v>0.02378116969409994</v>
       </c>
       <c r="T3">
-        <v>0.3321022476946747</v>
+        <v>0.02650822013847781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.894601759711</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H4">
-        <v>4.894601759711</v>
+        <v>1.243798</v>
       </c>
       <c r="I4">
-        <v>0.6795942214568041</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J4">
-        <v>0.6795942214568041</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="N4">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="O4">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="P4">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="Q4">
-        <v>15.35349809776816</v>
+        <v>0.007296257267777778</v>
       </c>
       <c r="R4">
-        <v>15.35349809776816</v>
+        <v>0.06566631541</v>
       </c>
       <c r="S4">
-        <v>0.176602992536443</v>
+        <v>6.808231770569861E-05</v>
       </c>
       <c r="T4">
-        <v>0.176602992536443</v>
+        <v>7.588949948615006E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.552723745214293</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H5">
-        <v>0.552723745214293</v>
+        <v>1.243798</v>
       </c>
       <c r="I5">
-        <v>0.07674329429648538</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J5">
-        <v>0.07674329429648538</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.03533045753573</v>
+        <v>0.022088</v>
       </c>
       <c r="N5">
-        <v>3.03533045753573</v>
+        <v>0.066264</v>
       </c>
       <c r="O5">
-        <v>0.2514573782857693</v>
+        <v>0.001774268250568265</v>
       </c>
       <c r="P5">
-        <v>0.2514573782857693</v>
+        <v>0.00194052222081558</v>
       </c>
       <c r="Q5">
-        <v>1.677699218452162</v>
+        <v>0.009157670074666667</v>
       </c>
       <c r="R5">
-        <v>1.677699218452162</v>
+        <v>0.082419030672</v>
       </c>
       <c r="S5">
-        <v>0.01929766758480744</v>
+        <v>8.54514007093553E-05</v>
       </c>
       <c r="T5">
-        <v>0.01929766758480744</v>
+        <v>9.525034177384691E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.552723745214293</v>
+        <v>0.4145993333333333</v>
       </c>
       <c r="H6">
-        <v>0.552723745214293</v>
+        <v>1.243798</v>
       </c>
       <c r="I6">
-        <v>0.07674329429648538</v>
+        <v>0.0481614889304291</v>
       </c>
       <c r="J6">
-        <v>0.07674329429648538</v>
+        <v>0.04908490134877933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.89880084844348</v>
+        <v>3.1997185</v>
       </c>
       <c r="N6">
-        <v>5.89880084844348</v>
+        <v>6.399437000000001</v>
       </c>
       <c r="O6">
-        <v>0.4886772683010276</v>
+        <v>0.2570245810080548</v>
       </c>
       <c r="P6">
-        <v>0.4886772683010276</v>
+        <v>0.1874056757697904</v>
       </c>
       <c r="Q6">
-        <v>3.26040729722493</v>
+        <v>1.326601156954333</v>
       </c>
       <c r="R6">
-        <v>3.26040729722493</v>
+        <v>7.959606941726</v>
       </c>
       <c r="S6">
-        <v>0.03750270341722831</v>
+        <v>0.01237868651306761</v>
       </c>
       <c r="T6">
-        <v>0.03750270341722831</v>
+        <v>0.009198789107361488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.552723745214293</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H7">
-        <v>0.552723745214293</v>
+        <v>16.311022</v>
       </c>
       <c r="I7">
-        <v>0.07674329429648538</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J7">
-        <v>0.07674329429648538</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.13682273890955</v>
+        <v>3.062569</v>
       </c>
       <c r="N7">
-        <v>3.13682273890955</v>
+        <v>9.187707</v>
       </c>
       <c r="O7">
-        <v>0.259865353413203</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P7">
-        <v>0.259865353413203</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q7">
-        <v>1.733796412323443</v>
+        <v>16.65121011183933</v>
       </c>
       <c r="R7">
-        <v>1.733796412323443</v>
+        <v>149.860891006554</v>
       </c>
       <c r="S7">
-        <v>0.01994292329444962</v>
+        <v>0.1553745893836695</v>
       </c>
       <c r="T7">
-        <v>0.01994292329444962</v>
+        <v>0.1731918098347262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.35977885386842</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H8">
-        <v>1.35977885386842</v>
+        <v>16.311022</v>
       </c>
       <c r="I8">
-        <v>0.1887993951121158</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J8">
-        <v>0.1887993951121158</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.03533045753573</v>
+        <v>6.147102</v>
       </c>
       <c r="N8">
-        <v>3.03533045753573</v>
+        <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.2514573782857693</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P8">
-        <v>0.2514573782857693</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q8">
-        <v>4.127378170659841</v>
+        <v>33.421838652748</v>
       </c>
       <c r="R8">
-        <v>4.127378170659841</v>
+        <v>300.796547874732</v>
       </c>
       <c r="S8">
-        <v>0.04747500091683172</v>
+        <v>0.3118634875327002</v>
       </c>
       <c r="T8">
-        <v>0.04747500091683172</v>
+        <v>0.3476257092064424</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.35977885386842</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H9">
-        <v>1.35977885386842</v>
+        <v>16.311022</v>
       </c>
       <c r="I9">
-        <v>0.1887993951121158</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J9">
-        <v>0.1887993951121158</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>5.89880084844348</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="N9">
-        <v>5.89880084844348</v>
+        <v>0.052795</v>
       </c>
       <c r="O9">
-        <v>0.4886772683010276</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="P9">
-        <v>0.4886772683010276</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="Q9">
-        <v>8.021064656894538</v>
+        <v>0.09568226738777778</v>
       </c>
       <c r="R9">
-        <v>8.021064656894538</v>
+        <v>0.8611404064900001</v>
       </c>
       <c r="S9">
-        <v>0.09226197266027514</v>
+        <v>0.0008928235789964606</v>
       </c>
       <c r="T9">
-        <v>0.09226197266027514</v>
+        <v>0.0009952060508921726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.35977885386842</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H10">
-        <v>1.35977885386842</v>
+        <v>16.311022</v>
       </c>
       <c r="I10">
-        <v>0.1887993951121158</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J10">
-        <v>0.1887993951121158</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.13682273890955</v>
+        <v>0.022088</v>
       </c>
       <c r="N10">
-        <v>3.13682273890955</v>
+        <v>0.066264</v>
       </c>
       <c r="O10">
-        <v>0.259865353413203</v>
+        <v>0.001774268250568265</v>
       </c>
       <c r="P10">
-        <v>0.259865353413203</v>
+        <v>0.00194052222081558</v>
       </c>
       <c r="Q10">
-        <v>4.265385228702826</v>
+        <v>0.1200926179786667</v>
       </c>
       <c r="R10">
-        <v>4.265385228702826</v>
+        <v>1.080833561808</v>
       </c>
       <c r="S10">
-        <v>0.04906242153500892</v>
+        <v>0.001120599709037247</v>
       </c>
       <c r="T10">
-        <v>0.04906242153500892</v>
+        <v>0.001249101880032559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.395137221805286</v>
+        <v>5.437007333333334</v>
       </c>
       <c r="H11">
-        <v>0.395137221805286</v>
+        <v>16.311022</v>
       </c>
       <c r="I11">
-        <v>0.05486308913459455</v>
+        <v>0.6315841523277781</v>
       </c>
       <c r="J11">
-        <v>0.05486308913459455</v>
+        <v>0.6436936751528539</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.03533045753573</v>
+        <v>3.1997185</v>
       </c>
       <c r="N11">
-        <v>3.03533045753573</v>
+        <v>6.399437000000001</v>
       </c>
       <c r="O11">
-        <v>0.2514573782857693</v>
+        <v>0.2570245810080548</v>
       </c>
       <c r="P11">
-        <v>0.2514573782857693</v>
+        <v>0.1874056757697904</v>
       </c>
       <c r="Q11">
-        <v>1.199372044251636</v>
+        <v>17.39689294910234</v>
       </c>
       <c r="R11">
-        <v>1.199372044251636</v>
+        <v>104.381357694614</v>
       </c>
       <c r="S11">
-        <v>0.01379572855844362</v>
+        <v>0.1623326521233746</v>
       </c>
       <c r="T11">
-        <v>0.01379572855844362</v>
+        <v>0.1206318481807606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.395137221805286</v>
+        <v>0.642813</v>
       </c>
       <c r="H12">
-        <v>0.395137221805286</v>
+        <v>1.928439</v>
       </c>
       <c r="I12">
-        <v>0.05486308913459455</v>
+        <v>0.0746716858778578</v>
       </c>
       <c r="J12">
-        <v>0.05486308913459455</v>
+        <v>0.07610338501279039</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.89880084844348</v>
+        <v>3.062569</v>
       </c>
       <c r="N12">
-        <v>5.89880084844348</v>
+        <v>9.187707</v>
       </c>
       <c r="O12">
-        <v>0.4886772683010276</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P12">
-        <v>0.4886772683010276</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q12">
-        <v>2.330835779236621</v>
+        <v>1.968659166597</v>
       </c>
       <c r="R12">
-        <v>2.330835779236621</v>
+        <v>17.717932499373</v>
       </c>
       <c r="S12">
-        <v>0.02681034452884945</v>
+        <v>0.01836981261973985</v>
       </c>
       <c r="T12">
-        <v>0.02681034452884945</v>
+        <v>0.02047632825005506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.642813</v>
+      </c>
+      <c r="H13">
+        <v>1.928439</v>
+      </c>
+      <c r="I13">
+        <v>0.0746716858778578</v>
+      </c>
+      <c r="J13">
+        <v>0.07610338501279039</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.147102</v>
+      </c>
+      <c r="N13">
+        <v>18.441306</v>
+      </c>
+      <c r="O13">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P13">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q13">
+        <v>3.951437077926</v>
+      </c>
+      <c r="R13">
+        <v>35.562933701334</v>
+      </c>
+      <c r="S13">
+        <v>0.03687136906774283</v>
+      </c>
+      <c r="T13">
+        <v>0.04109950774613403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.642813</v>
+      </c>
+      <c r="H14">
+        <v>1.928439</v>
+      </c>
+      <c r="I14">
+        <v>0.0746716858778578</v>
+      </c>
+      <c r="J14">
+        <v>0.07610338501279039</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.052795</v>
+      </c>
+      <c r="O14">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P14">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q14">
+        <v>0.011312437445</v>
+      </c>
+      <c r="R14">
+        <v>0.101811937005</v>
+      </c>
+      <c r="S14">
+        <v>0.00010555781298415</v>
+      </c>
+      <c r="T14">
+        <v>0.0001176624102141761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.642813</v>
+      </c>
+      <c r="H15">
+        <v>1.928439</v>
+      </c>
+      <c r="I15">
+        <v>0.0746716858778578</v>
+      </c>
+      <c r="J15">
+        <v>0.07610338501279039</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.022088</v>
+      </c>
+      <c r="N15">
+        <v>0.066264</v>
+      </c>
+      <c r="O15">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P15">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q15">
+        <v>0.014198453544</v>
+      </c>
+      <c r="R15">
+        <v>0.127786081896</v>
+      </c>
+      <c r="S15">
+        <v>0.0001324876014694898</v>
+      </c>
+      <c r="T15">
+        <v>0.0001476803096966031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.642813</v>
+      </c>
+      <c r="H16">
+        <v>1.928439</v>
+      </c>
+      <c r="I16">
+        <v>0.0746716858778578</v>
+      </c>
+      <c r="J16">
+        <v>0.07610338501279039</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.1997185</v>
+      </c>
+      <c r="N16">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P16">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q16">
+        <v>2.0568206481405</v>
+      </c>
+      <c r="R16">
+        <v>12.340923888843</v>
+      </c>
+      <c r="S16">
+        <v>0.01919245877592148</v>
+      </c>
+      <c r="T16">
+        <v>0.01426220629669053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.395137221805286</v>
-      </c>
-      <c r="H13">
-        <v>0.395137221805286</v>
-      </c>
-      <c r="I13">
-        <v>0.05486308913459455</v>
-      </c>
-      <c r="J13">
-        <v>0.05486308913459455</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.13682273890955</v>
-      </c>
-      <c r="N13">
-        <v>3.13682273890955</v>
-      </c>
-      <c r="O13">
-        <v>0.259865353413203</v>
-      </c>
-      <c r="P13">
-        <v>0.259865353413203</v>
-      </c>
-      <c r="Q13">
-        <v>1.239475422348367</v>
-      </c>
-      <c r="R13">
-        <v>1.239475422348367</v>
-      </c>
-      <c r="S13">
-        <v>0.01425701604730147</v>
-      </c>
-      <c r="T13">
-        <v>0.01425701604730147</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.628259333333334</v>
+      </c>
+      <c r="H17">
+        <v>4.884778000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1891450071270445</v>
+      </c>
+      <c r="J17">
+        <v>0.1927715322268468</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.062569</v>
+      </c>
+      <c r="N17">
+        <v>9.187707</v>
+      </c>
+      <c r="O17">
+        <v>0.2460077391286943</v>
+      </c>
+      <c r="P17">
+        <v>0.2690593624267</v>
+      </c>
+      <c r="Q17">
+        <v>4.986656558227334</v>
+      </c>
+      <c r="R17">
+        <v>44.87990902404601</v>
+      </c>
+      <c r="S17">
+        <v>0.04653113557080498</v>
+      </c>
+      <c r="T17">
+        <v>0.05186698555497346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.628259333333334</v>
+      </c>
+      <c r="H18">
+        <v>4.884778000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1891450071270445</v>
+      </c>
+      <c r="J18">
+        <v>0.1927715322268468</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.147102</v>
+      </c>
+      <c r="N18">
+        <v>18.441306</v>
+      </c>
+      <c r="O18">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P18">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q18">
+        <v>10.009076204452</v>
+      </c>
+      <c r="R18">
+        <v>90.08168584006802</v>
+      </c>
+      <c r="S18">
+        <v>0.09339598112877341</v>
+      </c>
+      <c r="T18">
+        <v>0.1041059485154289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.628259333333334</v>
+      </c>
+      <c r="H19">
+        <v>4.884778000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1891450071270445</v>
+      </c>
+      <c r="J19">
+        <v>0.1927715322268468</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.052795</v>
+      </c>
+      <c r="O19">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P19">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q19">
+        <v>0.02865465050111111</v>
+      </c>
+      <c r="R19">
+        <v>0.2578918545100001</v>
+      </c>
+      <c r="S19">
+        <v>0.0002673802399728952</v>
+      </c>
+      <c r="T19">
+        <v>0.0002980414484674821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.628259333333334</v>
+      </c>
+      <c r="H20">
+        <v>4.884778000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1891450071270445</v>
+      </c>
+      <c r="J20">
+        <v>0.1927715322268468</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.022088</v>
+      </c>
+      <c r="N20">
+        <v>0.066264</v>
+      </c>
+      <c r="O20">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P20">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q20">
+        <v>0.03596499215466667</v>
+      </c>
+      <c r="R20">
+        <v>0.3236849293920001</v>
+      </c>
+      <c r="S20">
+        <v>0.0003355939808990232</v>
+      </c>
+      <c r="T20">
+        <v>0.000374077441826863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.628259333333334</v>
+      </c>
+      <c r="H21">
+        <v>4.884778000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1891450071270445</v>
+      </c>
+      <c r="J21">
+        <v>0.1927715322268468</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.1997185</v>
+      </c>
+      <c r="N21">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P21">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q21">
+        <v>5.209971511664334</v>
+      </c>
+      <c r="R21">
+        <v>31.25982906998601</v>
+      </c>
+      <c r="S21">
+        <v>0.04861491620659413</v>
+      </c>
+      <c r="T21">
+        <v>0.03612647926615017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.485845</v>
+      </c>
+      <c r="H22">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J22">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.062569</v>
+      </c>
+      <c r="N22">
+        <v>9.187707</v>
+      </c>
+      <c r="O22">
+        <v>0.2460077391286943</v>
+      </c>
+      <c r="P22">
+        <v>0.2690593624267</v>
+      </c>
+      <c r="Q22">
+        <v>1.487933835805</v>
+      </c>
+      <c r="R22">
+        <v>8.92760301483</v>
+      </c>
+      <c r="S22">
+        <v>0.01388410254963342</v>
+      </c>
+      <c r="T22">
+        <v>0.01031748652526525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.485845</v>
+      </c>
+      <c r="H23">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J23">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.147102</v>
+      </c>
+      <c r="N23">
+        <v>18.441306</v>
+      </c>
+      <c r="O23">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P23">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q23">
+        <v>2.98653877119</v>
+      </c>
+      <c r="R23">
+        <v>17.91923262714</v>
+      </c>
+      <c r="S23">
+        <v>0.02786777850590687</v>
+      </c>
+      <c r="T23">
+        <v>0.02070896755450443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.485845</v>
+      </c>
+      <c r="H24">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J24">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.052795</v>
+      </c>
+      <c r="O24">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P24">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q24">
+        <v>0.008550062258333333</v>
+      </c>
+      <c r="R24">
+        <v>0.05130037355</v>
+      </c>
+      <c r="S24">
+        <v>7.978173380016323E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.928701264650463E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.485845</v>
+      </c>
+      <c r="H25">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J25">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.022088</v>
+      </c>
+      <c r="N25">
+        <v>0.066264</v>
+      </c>
+      <c r="O25">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P25">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q25">
+        <v>0.01073134436</v>
+      </c>
+      <c r="R25">
+        <v>0.06438806615999999</v>
+      </c>
+      <c r="S25">
+        <v>0.0001001355584531493</v>
+      </c>
+      <c r="T25">
+        <v>7.441224748570854E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.485845</v>
+      </c>
+      <c r="H26">
+        <v>0.9716899999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.05643766573689054</v>
+      </c>
+      <c r="J26">
+        <v>0.03834650625872962</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1997185</v>
+      </c>
+      <c r="N26">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P26">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q26">
+        <v>1.5545672346325</v>
+      </c>
+      <c r="R26">
+        <v>6.218268938530001</v>
+      </c>
+      <c r="S26">
+        <v>0.01450586738909694</v>
+      </c>
+      <c r="T26">
+        <v>0.007186352918827724</v>
       </c>
     </row>
   </sheetData>
